--- a/REVER_DailyTracker_20201009.xlsx
+++ b/REVER_DailyTracker_20201009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D313357D-5D1D-4897-9D4C-2A87D075BA81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB5587F-2971-46C9-92BF-A660E77B23FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="47">
   <si>
     <t>Task</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
+  </si>
+  <si>
+    <t>Emplogin</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -433,9 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,6 +451,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,7 +1241,7 @@
       <c r="E5" s="7">
         <v>0.5</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -1257,7 +1262,7 @@
       <c r="E6" s="7">
         <v>0.2</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -1278,7 +1283,7 @@
       <c r="E7" s="7">
         <v>0.4</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="1"/>
@@ -1550,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1667,7 +1672,7 @@
       <c r="E5" s="22">
         <v>0.4</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
@@ -1688,7 +1693,7 @@
       <c r="E6" s="22">
         <v>0.8</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
@@ -1703,7 +1708,7 @@
       <c r="C7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="47" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="22">
@@ -1998,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2179,28 +2184,52 @@
         <v>34</v>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="46" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="A12"/>
@@ -2280,7 +2309,7 @@
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="46" t="s">
         <v>3</v>
       </c>
       <c r="C23" t="s">
@@ -2288,13 +2317,13 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
+      <c r="B24" s="48"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
@@ -2302,7 +2331,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
+      <c r="B26" s="49"/>
       <c r="C26" t="s">
         <v>10</v>
       </c>

--- a/REVER_DailyTracker_20201009.xlsx
+++ b/REVER_DailyTracker_20201009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB5587F-2971-46C9-92BF-A660E77B23FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF776A09-C120-4164-B89A-D95BC4D88040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="48">
   <si>
     <t>Task</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Adding assests Detatils</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
   </si>
 </sst>
 </file>
@@ -774,15 +777,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -806,7 +809,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -907,15 +910,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1018,15 +1021,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1128,15 +1131,15 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1448,15 +1451,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1559,15 +1562,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1614,7 +1617,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.4" customHeight="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.45" customHeight="1">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -1635,7 +1638,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.2" customHeight="1">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.15" customHeight="1">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -1656,7 +1659,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -1677,7 +1680,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -1771,15 +1774,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1882,15 +1885,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1916,7 +1919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2003,19 +2006,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -2350,15 +2353,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2457,19 +2460,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2495,7 +2498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2561,7 +2564,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2582,7 +2585,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2603,7 +2606,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2624,7 +2627,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2645,7 +2648,27 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
     <row r="11" spans="1:7" s="4" customFormat="1"/>
     <row r="12" spans="1:7" s="4" customFormat="1"/>
     <row r="13" spans="1:7" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20201009.xlsx
+++ b/REVER_DailyTracker_20201009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF776A09-C120-4164-B89A-D95BC4D88040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A822363-917B-4C7E-A5B6-B46AEBF5E0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -179,6 +179,46 @@
   </si>
   <si>
     <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>1. DRS-Weekly correction received and completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Return Credit Correction received and completed </t>
+  </si>
+  <si>
+    <t>Daily Task of Scheduling Report has been completed for download and upload (11 files 
+except one is having upload issue which under progress by Mohan san)</t>
+  </si>
+  <si>
+    <t>1. DRS-WeeKly task of SSC8 , Correction has been done</t>
+  </si>
+  <si>
+    <t>2. DRS-DAILY task of SSC11, Correction has been done</t>
+  </si>
+  <si>
+    <t>1. SchedulingReport daiky has been completed</t>
+  </si>
+  <si>
+    <t>2. Scheduling Report Monthly task has been completed</t>
+  </si>
+  <si>
+    <t>RPA Sony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Sony_Daily_SchedulingReport task, </t>
+  </si>
+  <si>
+    <t>1. method created to delete all specific pattern files before downloading the Sony daily scheduling report</t>
+  </si>
+  <si>
+    <t>2. method created to delete all specific pattern files before creating CSV files  to upload from  temp folder for the task Sony daily scheduling report</t>
+  </si>
+  <si>
+    <t>Correction at Sony_Daily_SchedulingReport task has been done related to unicode error</t>
+  </si>
+  <si>
+    <t>Customization work is in progress for Sony daily task of scheduling report</t>
   </si>
 </sst>
 </file>
@@ -347,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -456,6 +496,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,19 +820,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -798,7 +845,7 @@
       <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="50" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -809,7 +856,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -840,15 +887,355 @@
       <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="32">
         <v>0.7</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="51">
+        <v>44109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="51">
+        <v>44109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7" s="52"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="51">
+        <v>44110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="51">
+        <v>44110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="52"/>
+      <c r="E12"/>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="51">
+        <v>44111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="52"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="52"/>
+      <c r="E17"/>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="51">
+        <v>44112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="28">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" s="52"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="51">
+        <v>44113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="D21" s="52"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -902,23 +1289,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00652D81-D94A-470E-A003-BD391FDB1C04}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1009,27 +1396,346 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00652D81-D94A-470E-A003-BD391FDB1C04}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1120,36 +1826,37 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1165,275 +1872,167 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33">
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
         <v>44105</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="35" t="s">
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
-        <v>44109</v>
-      </c>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="D4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
-        <v>44110</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="46" t="s">
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>44111</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="46" t="s">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
-        <v>44112</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="46" t="s">
+      <c r="B7" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="8"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1443,23 +2042,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1554,23 +2153,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1596,226 +2195,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.45" customHeight="1">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -1877,23 +2278,366 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="48"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="49"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1919,28 +2663,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2002,366 +2732,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="48"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="49"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2387,118 +2774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2564,7 +2840,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2585,7 +2861,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -2606,7 +2882,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2627,7 +2903,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -2648,7 +2924,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>

--- a/REVER_DailyTracker_20201009.xlsx
+++ b/REVER_DailyTracker_20201009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A822363-917B-4C7E-A5B6-B46AEBF5E0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D947F6-F206-4C1B-8904-9B3AD90B4A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
   <si>
     <t>Task</t>
   </si>
@@ -219,6 +219,37 @@
   </si>
   <si>
     <t>Customization work is in progress for Sony daily task of scheduling report</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
   </si>
 </sst>
 </file>
@@ -270,7 +301,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -387,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -503,6 +534,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1723,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1762,27 +1799,118 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53">
+        <v>43992</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="54">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="54">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53">
+        <v>44053</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="54">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="56">
+        <v>6</v>
+      </c>
+      <c r="B7" s="53">
+        <v>44084</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
     <row r="9" spans="1:7" s="4" customFormat="1"/>
     <row r="10" spans="1:7" s="4" customFormat="1"/>

--- a/REVER_DailyTracker_20201009.xlsx
+++ b/REVER_DailyTracker_20201009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D947F6-F206-4C1B-8904-9B3AD90B4A01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC83CF1E-F83C-4A2F-B910-0D2238A60B95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -219,37 +219,6 @@
   </si>
   <si>
     <t>Customization work is in progress for Sony daily task of scheduling report</t>
-  </si>
-  <si>
-    <t>QMVAR-RPA</t>
-  </si>
-  <si>
-    <t>InvoiceUpdate IW/OW error correction</t>
-  </si>
-  <si>
-    <t>HAYAAI-B2B</t>
-  </si>
-  <si>
-    <t>New API for inserting job sheet details for Pickup</t>
-  </si>
-  <si>
-    <t>wip</t>
-  </si>
-  <si>
-    <t>Correction Job Details API to get Pickup Ack information</t>
-  </si>
-  <si>
-    <t>HAYAAI-B2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In /instantfix/create and instantfix/update:
-Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
-Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
-Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
-</t>
-  </si>
-  <si>
-    <t>Leave</t>
   </si>
 </sst>
 </file>
@@ -301,7 +270,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -418,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -534,12 +503,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,18 +821,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -893,7 +856,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -914,7 +877,7 @@
       </c>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -969,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1089,7 +1052,7 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1103,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1129,7 +1092,7 @@
       <c r="E17"/>
       <c r="F17"/>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1">
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="30">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1223,15 +1186,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1334,15 +1297,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1440,19 +1403,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1605,12 +1568,24 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
@@ -1760,433 +1735,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43840</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>43961</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="53">
-        <v>43992</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="54">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="53">
-        <v>44022</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="54">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="53">
-        <v>44053</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="54">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="56">
-        <v>6</v>
-      </c>
-      <c r="B7" s="53">
-        <v>44084</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="20">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="20">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2281,23 +1842,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2323,28 +1884,226 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="28">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="26.45" customHeight="1">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="25.9" customHeight="1">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="48" customHeight="1">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2406,366 +2165,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="48"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="49"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2791,14 +2207,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="28">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -2860,6 +2290,460 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="48"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="49"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -2868,15 +2752,15 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2902,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2968,7 +2852,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2989,7 +2873,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -3010,7 +2894,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3031,7 +2915,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -3052,7 +2936,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
